--- a/InterviewTest/output/230020/230020_failed.xlsx
+++ b/InterviewTest/output/230020/230020_failed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Downloads\rpa test\MemoAgilityTest\InterviewTest\output\230020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E7CAD51-28D0-4C8C-8991-1DA706D99B61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8699255-FC9F-4BF0-8ADB-5C8D21D32381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/InterviewTest/output/230020/230020_failed.xlsx
+++ b/InterviewTest/output/230020/230020_failed.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Downloads\rpa test\MemoAgilityTest\InterviewTest\output\230020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Documents\UiPath\MemoAgilityTest\InterviewTest\output\230020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8699255-FC9F-4BF0-8ADB-5C8D21D32381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08FB174C-17AE-4B4F-84CB-54F6DEFBBA19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
+    <workbookView xWindow="30750" yWindow="1950" windowWidth="22410" windowHeight="18675" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/InterviewTest/output/230020/230020_failed.xlsx
+++ b/InterviewTest/output/230020/230020_failed.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Documents\UiPath\MemoAgilityTest\InterviewTest\output\230020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Downloads\rpa test\MemoAgilityTest\InterviewTest\output\230020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08FB174C-17AE-4B4F-84CB-54F6DEFBBA19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B337D6BA-FE50-4E48-9D2D-B7F817CBE0D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30750" yWindow="1950" windowWidth="22410" windowHeight="18675" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
